--- a/dataset/squad_preds_metrics_t0.1_deberta.xlsx
+++ b/dataset/squad_preds_metrics_t0.1_deberta.xlsx
@@ -11632,6 +11632,7 @@
         <color rgb="FF000000"/>
         <rFont val="Noto Sans CJK SC"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">中国人民大学 </t>
     </r>
@@ -13289,7 +13290,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -13320,6 +13321,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFC9211E"/>
       <name val="Calibri"/>
@@ -13331,6 +13340,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -13382,7 +13392,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -13395,11 +13405,19 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -13482,18 +13500,18 @@
   </sheetPr>
   <dimension ref="A1:M1185"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A82" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A101" activeCellId="0" sqref="101:101"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A70" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L78" activeCellId="5" sqref="L11 L39 L43 L61 L67 L78"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1" min="1" style="0" width="8.53"/>
     <col collapsed="false" customWidth="true" hidden="true" outlineLevel="0" max="2" min="2" style="0" width="33.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.21"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="33.74"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="30.21"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="14.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="13.78"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="15.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="14.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
@@ -13697,7 +13715,7 @@
       <c r="K5" s="0" t="n">
         <v>0.999999995</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M5" s="1" t="s">
@@ -13738,7 +13756,7 @@
       <c r="K6" s="0" t="n">
         <v>0.999999995</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M6" s="1" t="s">
@@ -13820,7 +13838,7 @@
       <c r="K8" s="0" t="n">
         <v>0.999999995</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M8" s="1" t="s">
@@ -13943,7 +13961,7 @@
       <c r="K11" s="0" t="n">
         <v>0.666666662222222</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M11" s="1" t="s">
@@ -14397,7 +14415,7 @@
       <c r="L22" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -14435,7 +14453,7 @@
       <c r="K23" s="0" t="n">
         <v>0.999999995</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="1" t="s">
@@ -14640,7 +14658,7 @@
       <c r="K28" s="0" t="n">
         <v>0.999999995</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M28" s="1" t="s">
@@ -15091,7 +15109,7 @@
       <c r="K39" s="0" t="n">
         <v>0.49999999625</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M39" s="1" t="s">
@@ -15211,7 +15229,7 @@
       <c r="K42" s="0" t="n">
         <v>0.999999995</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M42" s="1" t="s">
@@ -15252,7 +15270,7 @@
       <c r="K43" s="0" t="n">
         <v>0.49999999625</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M43" s="1" t="s">
@@ -15296,7 +15314,7 @@
       <c r="L44" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15539,7 +15557,7 @@
       <c r="K50" s="0" t="n">
         <v>0.999999995</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="3" t="s">
         <v>30</v>
       </c>
       <c r="M50" s="1" t="s">
@@ -15706,7 +15724,7 @@
       <c r="L54" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15747,7 +15765,7 @@
       <c r="L55" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="5" t="s">
         <v>18</v>
       </c>
     </row>
@@ -15990,7 +16008,7 @@
       <c r="K61" s="0" t="n">
         <v>0.49999999625</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M61" s="1" t="s">
@@ -16236,7 +16254,7 @@
       <c r="K67" s="0" t="n">
         <v>0.333333330555556</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M67" s="1" t="s">
@@ -16687,7 +16705,7 @@
       <c r="K78" s="0" t="n">
         <v>0.571428566530612</v>
       </c>
-      <c r="L78" s="1" t="s">
+      <c r="L78" s="4" t="s">
         <v>30</v>
       </c>
       <c r="M78" s="1" t="s">
@@ -18532,7 +18550,7 @@
       <c r="L124" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="M124" s="3"/>
+      <c r="M124" s="5"/>
     </row>
     <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="0" t="s">
@@ -53177,7 +53195,7 @@
       <c r="D1037" s="0" t="s">
         <v>3867</v>
       </c>
-      <c r="E1037" s="4" t="s">
+      <c r="E1037" s="6" t="s">
         <v>3868</v>
       </c>
       <c r="F1037" s="0" t="n">
@@ -57164,7 +57182,7 @@
       <c r="D1142" s="0" t="s">
         <v>4253</v>
       </c>
-      <c r="E1142" s="4" t="s">
+      <c r="E1142" s="6" t="s">
         <v>4254</v>
       </c>
       <c r="F1142" s="0" t="n">
@@ -57769,7 +57787,7 @@
       <c r="D1158" s="0" t="s">
         <v>4311</v>
       </c>
-      <c r="E1158" s="4" t="s">
+      <c r="E1158" s="6" t="s">
         <v>4312</v>
       </c>
       <c r="F1158" s="0" t="n">
@@ -58561,7 +58579,7 @@
       <c r="D1179" s="0" t="s">
         <v>4388</v>
       </c>
-      <c r="E1179" s="4" t="s">
+      <c r="E1179" s="6" t="s">
         <v>4389</v>
       </c>
       <c r="F1179" s="0" t="n">
